--- a/JavaSelenium/src/dataproviders/Vendors.xlsx
+++ b/JavaSelenium/src/dataproviders/Vendors.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19995" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>VendorName</t>
   </si>
@@ -36,9 +37,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Zip</t>
-  </si>
-  <si>
     <t>nkasu@xtglobal.com</t>
   </si>
   <si>
@@ -57,12 +55,6 @@
     <t>tc_CreateVendor</t>
   </si>
   <si>
-    <t>75092</t>
-  </si>
-  <si>
-    <t>75093</t>
-  </si>
-  <si>
     <t>1500 suite</t>
   </si>
   <si>
@@ -91,6 +83,12 @@
   </si>
   <si>
     <t>Xenosoft15</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>tc_CreateVendor1</t>
   </si>
 </sst>
 </file>
@@ -141,10 +139,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,21 +426,20 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -460,123 +456,123 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
+      <c r="G2">
+        <v>75093</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>75093</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>75093</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>75093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
+      <c r="G6">
+        <v>75093</v>
       </c>
     </row>
   </sheetData>
